--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4072,26 +4072,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,26 +4120,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -5060,7 +5060,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,16 +3218,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3236,12 +3236,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4072,26 +4072,26 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4100,12 +4100,12 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,26 +4120,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -9943,11 +9943,11 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F200" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -9956,12 +9956,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -16168,7 +16168,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -16183,11 +16183,11 @@
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F330" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G330" t="inlineStr">
         <is>
@@ -16196,12 +16196,12 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4120,26 +4120,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4120,26 +4120,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>07/03/2022</t>
+          <t>14/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,16 +3266,16 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4120,26 +4120,26 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4148,12 +4148,12 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -9976,7 +9976,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -9991,11 +9991,11 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F201" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -10004,12 +10004,12 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -16231,11 +16231,11 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F331" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G331" t="inlineStr">
         <is>
@@ -16244,12 +16244,12 @@
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -8599,7 +8599,7 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANÍSMO</t>
+          <t>MINISTERIO DE OBRAS PÚBLICAS</t>
         </is>
       </c>
       <c r="F172" t="n">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>GRENERGY RENOVABLES PACIFIC LIMITADA</t>
+          <t>GR Llullaillaco SpA</t>
         </is>
       </c>
       <c r="F7" t="n">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Mineria</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -11095,7 +11095,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Empresa Nacional de Mineria</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F224" t="n">
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>EMPRESA NACIONAL DE MINERIA</t>
+          <t>Empresa Nacional de Minería</t>
         </is>
       </c>
       <c r="F230" t="n">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -1111,7 +1111,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANÍSMO</t>
+          <t>Servicio de Vivienda y Urbanísmo (SERVIU) Región de Antofagasta</t>
         </is>
       </c>
       <c r="F16" t="n">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>03/10/2022</t>
+          <t>18/11/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/11/2022</t>
+          <t>21/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,11 +5575,11 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sociedad de Transportes Camaro Ltda.</t>
+          <t>Transportes TMS Limitada</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>MODIFICACION DE LA DECLARACIÓN DE IMPACTO AMBIENTAL PROYECTO TRANSPORTE DE SULFHIDRATO DE SODIO EN LA PRIMERA Y SEGUNDA REGION</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Transportes TMS Limitada</t>
+          <t>Sociedad de Transportes Camaro Ltda.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6479568&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6450945&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -14359,7 +14359,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Compañia Minera Teck Quebrada Blanca S.A.</t>
+          <t>Compañia Minera Teck Quebrada Blanca S.A...</t>
         </is>
       </c>
       <c r="F292" t="n">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -7063,7 +7063,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F140" t="n">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F153" t="n">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F159" t="n">
@@ -15127,7 +15127,7 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F308" t="n">
@@ -16279,7 +16279,7 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
@@ -16759,7 +16759,7 @@
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F342" t="n">
@@ -16807,7 +16807,7 @@
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Electroandina S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F343" t="n">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -631,7 +631,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ENGIE LATAM S.A.</t>
+          <t>ENGIE AUSTRAL S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3314,16 +3314,16 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3332,12 +3332,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4168,26 +4168,26 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4196,12 +4196,12 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -10024,7 +10024,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -10039,11 +10039,11 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F202" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G202" t="inlineStr">
         <is>
@@ -10052,12 +10052,12 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -16279,11 +16279,11 @@
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F332" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G332" t="inlineStr">
         <is>
@@ -16292,12 +16292,12 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,26 +4264,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,26 +4264,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>22/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN NEGREIROS</t>
+          <t>Ampliación Negreiros</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,26 +4264,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos</t>
+          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,16 +3362,16 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Sociedad Pino y Labarca Ltda.</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>219</v>
+        <v>26000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Uso de Cal Hidratada, Central Termoeléctrica Tocopilla para Cumplimiento de Norma de Emisión para Centrales Termoeléctricas</t>
+          <t>Transporte de Residuos Peligrosos</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,16 +3410,16 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Engie Energía Chile S.A.</t>
+          <t>Sociedad Pino y Labarca Ltda.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>26000</v>
+        <v>219</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3428,12 +3428,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128958787&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128960103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -4216,26 +4216,26 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>RT Sulfuros</t>
+          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Segunda</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CODELCO Chile, División Radomiro Tomic</t>
+          <t>Transaltisa Chile Ltda.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>5.4</v>
+        <v>2050</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4244,12 +4244,12 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,26 +4264,26 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas Transaltisa Chile Ltda</t>
+          <t>RT Sulfuros</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Segunda</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Transaltisa Chile Ltda.</t>
+          <t>CODELCO Chile, División Radomiro Tomic</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>2050</v>
+        <v>5.4</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4292,12 +4292,12 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8218613&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8210090&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -10072,7 +10072,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -10087,11 +10087,11 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
         </is>
       </c>
       <c r="F203" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G203" t="inlineStr">
         <is>
@@ -10100,12 +10100,12 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -10120,7 +10120,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>RED LOGISTICA DE TRANSPORTE DE BATERIAS (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -10135,11 +10135,11 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>EMASA, EQUIPOS Y MAQUINARIAS S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F204" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G204" t="inlineStr">
         <is>
@@ -10148,12 +10148,12 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3266344&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -16312,7 +16312,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
+          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -16327,11 +16327,11 @@
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Electroandina SpA</t>
+          <t>Minera San Cristóbal S.A.</t>
         </is>
       </c>
       <c r="F333" t="n">
-        <v>17000</v>
+        <v>340000</v>
       </c>
       <c r="G333" t="inlineStr">
         <is>
@@ -16340,12 +16340,12 @@
       </c>
       <c r="H333" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
@@ -16360,7 +16360,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Transporte de Concentrados de Zinc y Plomo por Caminos de la II Región</t>
+          <t>Recepción Almacenaje y Embarque Marítimo de Concentrados de Zinc y Plomo en Tocopilla</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -16375,11 +16375,11 @@
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Minera San Cristóbal S.A.</t>
+          <t>Electroandina SpA</t>
         </is>
       </c>
       <c r="F334" t="n">
-        <v>340000</v>
+        <v>17000</v>
       </c>
       <c r="G334" t="inlineStr">
         <is>
@@ -16388,12 +16388,12 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3337&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3333&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">

--- a/data/Tocopilla.xlsx
+++ b/data/Tocopilla.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
